--- a/Internal_Rover.xlsx
+++ b/Internal_Rover.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/sivaastro_arizona_edu/Documents/Siva Project/Lunar Base/V 1.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Visitor\OneDrive - University of Arizona\PhD\Siva\Project\Lunar base\Simulation\Lunar Base Software 23-24\GitHub\Lunar_Base_Software_Matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{419E90A0-9104-4669-942F-FF8D6499177A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B71784B5-E339-44B9-BDB3-B4E9AE918153}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8DB16B-253C-4AB9-9D11-6448FAC550F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26580" yWindow="1785" windowWidth="23070" windowHeight="12180" activeTab="1" xr2:uid="{CEE56E17-EA60-49DF-87A8-5BA1D46CF2C4}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{CEE56E17-EA60-49DF-87A8-5BA1D46CF2C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Path" sheetId="2" r:id="rId1"/>
     <sheet name="Rect" sheetId="3" r:id="rId2"/>
-    <sheet name="ParkingSpot" sheetId="1" r:id="rId3"/>
+    <sheet name="ParkingSpot_Actual_Base" sheetId="1" r:id="rId3"/>
+    <sheet name="FireKits" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
   <si>
     <t>S No</t>
   </si>
@@ -272,6 +273,57 @@
   </si>
   <si>
     <t>SA16</t>
+  </si>
+  <si>
+    <t>Park2</t>
+  </si>
+  <si>
+    <t>Park3</t>
+  </si>
+  <si>
+    <t>Park4</t>
+  </si>
+  <si>
+    <t>Park5</t>
+  </si>
+  <si>
+    <t>Park6</t>
+  </si>
+  <si>
+    <t>FR1</t>
+  </si>
+  <si>
+    <t>FR2</t>
+  </si>
+  <si>
+    <t>FR3</t>
+  </si>
+  <si>
+    <t>FR4</t>
+  </si>
+  <si>
+    <t>FR5</t>
+  </si>
+  <si>
+    <t>FR6</t>
+  </si>
+  <si>
+    <t>FR7</t>
+  </si>
+  <si>
+    <t>FR8</t>
+  </si>
+  <si>
+    <t>FR9</t>
+  </si>
+  <si>
+    <t>FR10</t>
+  </si>
+  <si>
+    <t>FR11</t>
+  </si>
+  <si>
+    <t>FR12</t>
   </si>
 </sst>
 </file>
@@ -330,10 +382,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1395,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9018F9A1-11D0-4326-B185-B01855F48314}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1841,15 +1889,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E132A32F-6FBD-4B0F-B95F-8C5CA788D0B1}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1862,14 +1910,8 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1877,17 +1919,280 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <f>508</f>
-        <v>508</v>
+        <v>205.13</v>
       </c>
       <c r="D2">
-        <v>427.83</v>
-      </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>40</v>
+        <v>143.285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>205.13</v>
+      </c>
+      <c r="D3">
+        <v>139.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4">
+        <v>275.30799999999999</v>
+      </c>
+      <c r="D4">
+        <v>143.285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>275.30799999999999</v>
+      </c>
+      <c r="D5">
+        <v>139.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <v>349.13099999999997</v>
+      </c>
+      <c r="D6">
+        <v>143.285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>349.13099999999997</v>
+      </c>
+      <c r="D7">
+        <v>139.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D70D105-AB96-4BFF-B1DF-57917DD79596}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2">
+        <v>202.13499999999999</v>
+      </c>
+      <c r="D2">
+        <v>208.77600000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3">
+        <v>205.39</v>
+      </c>
+      <c r="D3">
+        <v>208.77600000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4">
+        <v>202.13499999999999</v>
+      </c>
+      <c r="D4">
+        <v>72.065700000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5">
+        <v>205.39</v>
+      </c>
+      <c r="D5">
+        <v>72.065700000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>275.30799999999999</v>
+      </c>
+      <c r="D6">
+        <v>208.77600000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>275.30799999999999</v>
+      </c>
+      <c r="D7">
+        <v>72.065700000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8">
+        <v>349.13099999999997</v>
+      </c>
+      <c r="D8">
+        <v>72.065700000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9">
+        <v>349.13099999999997</v>
+      </c>
+      <c r="D9">
+        <v>208.77600000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10">
+        <f>278.563</f>
+        <v>278.56299999999999</v>
+      </c>
+      <c r="D10">
+        <v>208.77600000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11">
+        <v>351.99599999999998</v>
+      </c>
+      <c r="D11">
+        <v>72.065700000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12">
+        <f>278.563</f>
+        <v>278.56299999999999</v>
+      </c>
+      <c r="D12">
+        <v>72.065700000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13">
+        <v>351.99599999999998</v>
+      </c>
+      <c r="D13">
+        <v>208.77600000000001</v>
       </c>
     </row>
   </sheetData>
